--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_21_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3490180.222752217</v>
+        <v>3487928.14304101</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>326.452304119939</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>25.32094367426412</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>10.93787135974289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,13 +871,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>16.61609021060003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.83117660926939</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>169.644780075416</v>
+        <v>99.84759100840618</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>30.43365000154791</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>129.5398680316097</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620245</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>72.89138480951623</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505287</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>69.18922512558622</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.040488224226</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>99.98993057842257</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>230.7818758741516</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.54490042790936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>226.3926032458664</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>10.63412424768211</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412174</v>
       </c>
     </row>
     <row r="35">
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>125.2851635392055</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,16 +3664,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060384</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>41.02686156550217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4144,7 +4144,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4328,19 +4328,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4361,19 +4361,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669911</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>651.9203821015076</v>
+        <v>560.4166776763448</v>
       </c>
       <c r="C4" t="n">
-        <v>651.9203821015076</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="D4" t="n">
-        <v>651.9203821015076</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="E4" t="n">
-        <v>504.0072885191145</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="F4" t="n">
-        <v>357.1173410212041</v>
+        <v>391.4804947484379</v>
       </c>
       <c r="G4" t="n">
-        <v>189.414504395923</v>
+        <v>223.7776581231568</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>77.56047134101462</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X4" t="n">
-        <v>651.9203821015076</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y4" t="n">
-        <v>651.9203821015076</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025783</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4601,16 +4601,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.03827352421</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2362.804761797675</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1755.936184375951</v>
+        <v>1323.155438708629</v>
       </c>
       <c r="V7" t="n">
-        <v>1501.251696170064</v>
+        <v>1068.470950502742</v>
       </c>
       <c r="W7" t="n">
-        <v>1501.251696170064</v>
+        <v>779.0537804657819</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3294.864761001546</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T8" t="n">
-        <v>3088.887013385769</v>
+        <v>3009.33740552049</v>
       </c>
       <c r="U8" t="n">
-        <v>3088.887013385769</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>3088.887013385769</v>
+        <v>2424.744041450756</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4899,7 +4899,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738575</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="C10" t="n">
-        <v>752.7622949738575</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="D10" t="n">
-        <v>602.6456555615217</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="E10" t="n">
-        <v>454.7325619791286</v>
+        <v>188.3660221514001</v>
       </c>
       <c r="F10" t="n">
-        <v>307.8426144812182</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G10" t="n">
-        <v>140.1397778559372</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H10" t="n">
-        <v>140.1397778559372</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242374</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882605</v>
+        <v>880.2242361621305</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>590.80706612517</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947627</v>
+        <v>590.80706612517</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040972</v>
+        <v>370.0144869816398</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.355259300789</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142531</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142531</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>417.9651836029414</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>913.2907898187001</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>740.5562989961525</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
         <v>343.0994656851783</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,22 +6455,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,16 +6482,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.154262550759</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1920.063992790046</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797186</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>302.45403664168</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,16 +7160,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
         <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>746.8882603249857</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>135.2579373565599</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.391849971171</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>182.9484181982418</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.2063328744018</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>186.5330677581684</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>55.74112246243945</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.0397529241854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>25.74504007796156</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.005313310877426</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>15.00954930701839</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,16 +25552,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678704.7680095136</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678704.7680095137</v>
+        <v>678704.7680095136</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678704.7680095138</v>
+        <v>678704.7680095137</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.604713255</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073542</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551164</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319394</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184278</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13606.80811184285</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="F4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="H4" t="n">
-        <v>13606.80811184277</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.8081118428</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770008.8920477176</v>
+        <v>-770008.8920477177</v>
       </c>
       <c r="C6" t="n">
-        <v>558735.8536798747</v>
+        <v>558735.8536798751</v>
       </c>
       <c r="D6" t="n">
-        <v>558735.8536798755</v>
+        <v>558735.8536798744</v>
       </c>
       <c r="E6" t="n">
-        <v>306468.8049701502</v>
+        <v>306434.0670447156</v>
       </c>
       <c r="F6" t="n">
-        <v>631881.2667775056</v>
+        <v>631846.5288520695</v>
       </c>
       <c r="G6" t="n">
-        <v>631881.2667775057</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="H6" t="n">
-        <v>631881.2667775054</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="I6" t="n">
-        <v>631881.2667775055</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="J6" t="n">
-        <v>414350.064380228</v>
+        <v>414315.3264547924</v>
       </c>
       <c r="K6" t="n">
-        <v>631881.2667775056</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="L6" t="n">
-        <v>631881.2667775056</v>
+        <v>631846.5288520699</v>
       </c>
       <c r="M6" t="n">
-        <v>546826.2388419935</v>
+        <v>546791.5009165581</v>
       </c>
       <c r="N6" t="n">
-        <v>631881.2667775057</v>
+        <v>631846.5288520698</v>
       </c>
       <c r="O6" t="n">
-        <v>631881.2667775054</v>
+        <v>631846.5288520694</v>
       </c>
       <c r="P6" t="n">
-        <v>631881.2667775054</v>
+        <v>631846.5288520698</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26741,10 +26741,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022932</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483745</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483757</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973547</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973549</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973547</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.28153754354156</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>119.4340712400567</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.4145490500952</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>365.3142798616618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>329.8999240691996</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>116.5670581301969</v>
+        <v>186.3642471972067</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>78.75411178662794</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>240.1912326468594</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090675</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>23.46103560032189</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837908</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130972</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770854</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>465.2641870096817</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>704.1404939038099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32713,7 +32713,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
         <v>965.6463440175675</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32959,7 +32959,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>650.5350891770659</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>500.7380235181012</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>301.6445156724565</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33977,10 +33977,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004575</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707566</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.913862993752</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>327.4227480353227</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>572.7987818204766</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>519.1933770937326</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>366.763616103771</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>159.048271228012</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37625,10 +37625,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
